--- a/content/doc/Вентиляторная нагрузка.xlsx
+++ b/content/doc/Вентиляторная нагрузка.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SOURCETREE\Holdenberg\Kalina-1\kalina-1-sw\content\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A41D8-7108-4CF2-9A1C-F45D1DF7815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08AC01-B401-417F-B872-447D11485529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22050" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{4B9E384D-E52C-4A58-BB67-9029C68C768C}"/>
+    <workbookView xWindow="900" yWindow="1455" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4B9E384D-E52C-4A58-BB67-9029C68C768C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Km</t>
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Iист</t>
+  </si>
+  <si>
+    <t>Период тока</t>
+  </si>
+  <si>
+    <t>Частота тока</t>
+  </si>
+  <si>
+    <t>Частота вращения</t>
+  </si>
+  <si>
+    <t>оборотов</t>
   </si>
 </sst>
 </file>
@@ -110,6 +132,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31779155730533681"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -970,16 +1000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1306,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578C4077-B938-4750-A3A5-B39F10AD5DAC}">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1482,7 @@
         <v>0.24774118500153519</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f>K5/$O$1</f>
         <v>4.1509433962264142</v>
       </c>
       <c r="P5">
@@ -1833,4 +1863,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1334925A-1F55-418B-8446-C801C03D3296}">
+  <dimension ref="B1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="O1">
+        <f>2*PI()/N1</f>
+        <v>8377.5804095727817</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>62.4</v>
+      </c>
+      <c r="D2">
+        <v>0.21</v>
+      </c>
+      <c r="E2">
+        <f>C2/20</f>
+        <v>3.12</v>
+      </c>
+      <c r="H2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I2">
+        <f>1/H2</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J2">
+        <f>I2/7</f>
+        <v>51.020408163265309</v>
+      </c>
+      <c r="K2">
+        <f>J2*60</f>
+        <v>3061.2244897959185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>191</v>
+      </c>
+      <c r="D3">
+        <v>0.62</v>
+      </c>
+      <c r="E3">
+        <f>C3/20</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I3">
+        <f>1/H3</f>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="J3">
+        <f>I3/7</f>
+        <v>79.365079365079367</v>
+      </c>
+      <c r="K3">
+        <f>J3*60</f>
+        <v>4761.9047619047624</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>259</v>
+      </c>
+      <c r="D4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I4">
+        <f>1/H4</f>
+        <v>625</v>
+      </c>
+      <c r="J4">
+        <f>I4/7</f>
+        <v>89.285714285714292</v>
+      </c>
+      <c r="K4">
+        <f>J4*60</f>
+        <v>5357.1428571428578</v>
+      </c>
+      <c r="O4">
+        <f>2/O1</f>
+        <v>2.3873241463784301E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/content/doc/Вентиляторная нагрузка.xlsx
+++ b/content/doc/Вентиляторная нагрузка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SOURCETREE\Holdenberg\Kalina-1\kalina-1-sw\content\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08AC01-B401-417F-B872-447D11485529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897465A1-9272-44E0-8160-9FABFA6C2EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1455" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4B9E384D-E52C-4A58-BB67-9029C68C768C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4B9E384D-E52C-4A58-BB67-9029C68C768C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1000,16 +1000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1337,7 +1337,7 @@
   <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,10 +1870,13 @@
   <dimension ref="B1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
